--- a/IPC2024_base2010/imputacion/indxbase2010_3.xlsx
+++ b/IPC2024_base2010/imputacion/indxbase2010_3.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen_3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_div_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep2010_3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen2010_3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrepdiv2010_3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176.3412309648073</v>
+        <v>176.3411560953625</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.974491380593</v>
+        <v>144.9747370479149</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.5543038875887</v>
+        <v>269.5542872657873</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.4529968959719</v>
+        <v>162.4529171506751</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>269.2614492723895</v>
+        <v>269.2611891197935</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.1024319502983</v>
+        <v>159.1022612860059</v>
       </c>
     </row>
     <row r="7">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.1149661461806</v>
+        <v>161.1145131159893</v>
       </c>
     </row>
     <row r="8">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240.452471756772</v>
+        <v>240.4520565667979</v>
       </c>
     </row>
     <row r="9">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>285.3510104314864</v>
+        <v>285.3510441069006</v>
       </c>
     </row>
     <row r="3">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>120.3456307768533</v>
+        <v>120.3456130199895</v>
       </c>
     </row>
     <row r="5">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>136.5828401697384</v>
+        <v>136.5836280394984</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>141.2987163302882</v>
+        <v>141.2965944377511</v>
       </c>
     </row>
     <row r="9">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>111.0608813930013</v>
+        <v>111.0609611339344</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152.7363254246931</v>
+        <v>152.7374159109318</v>
       </c>
     </row>
     <row r="13">
